--- a/biology/Médecine/Hémoglobine_fœtale/Hémoglobine_fœtale.xlsx
+++ b/biology/Médecine/Hémoglobine_fœtale/Hémoglobine_fœtale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%A9moglobine_f%C5%93tale</t>
+          <t>Hémoglobine_fœtale</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'hémoglobine fœtale (ou HbF) est un type d'hémoglobine synthétisé chez le fœtus et le nouveau-né et disparaissant par la suite, sauf lors de certaines maladies.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H%C3%A9moglobine_f%C5%93tale</t>
+          <t>Hémoglobine_fœtale</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Structure</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il s'agit d'une hémoglobine  α2γ2, contenant deux sous-unités γ et deux sous unités α. Pour mémoire, l'hémoglobine adulte est de type α2β2. Cette hémoglobine est totalement fonctionnelle pour le transport de l'oxygène. Son affinité pour l'oxygène comparativement à l'hémoglobine adulte est supérieure. Ceci résulte de la diminution d'affinité pour le 2,3-bisphosphoglycérate (2,3-BPG). Cet acide stabilise la désoxyhémoglobine car sa forte charge négative interagit bien avec la chaine bêta de l'hémoglobine adulte et favorise la dissociation de l'oxygène. La chaîne γ de l'hémoglobine ne contient pas une charge aussi positive car elle contient un résidu d'histidine en moins.  
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>H%C3%A9moglobine_f%C5%93tale</t>
+          <t>Hémoglobine_fœtale</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Le gène</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le gène codant la globine γ est situé, chez l'être humain sur le chromosome 11, à peu de distance de celui codant la globine β.
 </t>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>H%C3%A9moglobine_f%C5%93tale</t>
+          <t>Hémoglobine_fœtale</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,11 +589,13 @@
           <t>Persistance de l'hémoglobine fœtale à l'âge adulte</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle peut se trouver de manière isolée, dans le cadre d'un syndrome de persistance de l'hémoglobine fœtale à l'âge adulte. Elle peut être synthétisée également en cas d'anomalie de l'hémoglobine, par exemple, en cas de thalassémie.
-La persistance de sa production semble améliorer plusieurs hémoglobinopathies, dont la thalassémie bêta[1] et la drépanocytose[2].
-Le BCL11A est un facteur de transcription qui inhibe la production d'hémoglobine fœtale[3].
+La persistance de sa production semble améliorer plusieurs hémoglobinopathies, dont la thalassémie bêta et la drépanocytose.
+Le BCL11A est un facteur de transcription qui inhibe la production d'hémoglobine fœtale.
 </t>
         </is>
       </c>
@@ -588,7 +606,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>H%C3%A9moglobine_f%C5%93tale</t>
+          <t>Hémoglobine_fœtale</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,9 +624,11 @@
           <t>Cible thérapeutique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une thérapie génique permet de réactiver la production d'hémoglobine foetale avec une amélioration considérable des symptômes de la drépanocytose[4]. Lors d'une thalassémie bêta, elle annule pratiquement les besoins transfusionnels[5].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une thérapie génique permet de réactiver la production d'hémoglobine foetale avec une amélioration considérable des symptômes de la drépanocytose. Lors d'une thalassémie bêta, elle annule pratiquement les besoins transfusionnels.
 </t>
         </is>
       </c>
